--- a/attendance-files/LAB/LAB (B) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="180">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP013</t>
   </si>
   <si>
     <t>Abhijeet Bhure</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP017</t>
@@ -1648,11 +1648,11 @@
       </c>
       <c r="E7" s="25">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>20</v>
@@ -1678,8 +1678,12 @@
       <c r="N7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="O7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
@@ -1698,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>9</v>
@@ -1712,7 +1716,7 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>20</v>
@@ -1727,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="28" t="s">
         <v>20</v>
@@ -1738,8 +1742,12 @@
       <c r="N8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="O8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -1772,10 +1780,10 @@
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>20</v>
@@ -1790,7 +1798,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>20</v>
@@ -1798,8 +1806,12 @@
       <c r="N9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="O9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -1832,13 +1844,13 @@
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>20</v>
@@ -1858,8 +1870,12 @@
       <c r="N10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
+      <c r="O10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -1892,13 +1908,13 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>20</v>
@@ -1918,8 +1934,12 @@
       <c r="N11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -1952,13 +1972,13 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>20</v>
@@ -1978,8 +1998,12 @@
       <c r="N12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="O12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
@@ -2012,13 +2036,13 @@
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>20</v>
@@ -2038,8 +2062,12 @@
       <c r="N13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
@@ -2072,13 +2100,13 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>20</v>
@@ -2098,8 +2126,12 @@
       <c r="N14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
+      <c r="O14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
@@ -2132,13 +2164,13 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>20</v>
@@ -2147,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>20</v>
@@ -2158,8 +2190,12 @@
       <c r="N15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
+      <c r="O15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
@@ -2192,13 +2228,13 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>20</v>
@@ -2218,8 +2254,12 @@
       <c r="N16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
+      <c r="O16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
@@ -2252,10 +2292,10 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>20</v>
@@ -2278,8 +2318,12 @@
       <c r="N17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
+      <c r="O17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
@@ -2312,7 +2356,7 @@
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>20</v>
@@ -2338,8 +2382,12 @@
       <c r="N18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
+      <c r="O18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
@@ -2372,7 +2420,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>20</v>
@@ -2398,8 +2446,12 @@
       <c r="N19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
+      <c r="O19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
@@ -2432,13 +2484,13 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>20</v>
@@ -2458,8 +2510,12 @@
       <c r="N20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
+      <c r="O20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
@@ -2492,7 +2548,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>20</v>
@@ -2513,13 +2569,17 @@
         <v>20</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
@@ -2552,7 +2612,7 @@
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>20</v>
@@ -2573,13 +2633,17 @@
         <v>20</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
@@ -2612,13 +2676,13 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>20</v>
@@ -2638,8 +2702,12 @@
       <c r="N23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+      <c r="O23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
@@ -2672,7 +2740,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>20</v>
@@ -2698,8 +2766,12 @@
       <c r="N24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="O24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
@@ -2728,17 +2800,17 @@
       </c>
       <c r="E25" s="25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>20</v>
@@ -2750,16 +2822,20 @@
         <v>20</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
+      <c r="O25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
@@ -2792,7 +2868,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>20</v>
@@ -2804,7 +2880,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" s="28" t="s">
         <v>20</v>
@@ -2818,8 +2894,12 @@
       <c r="N26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+      <c r="O26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
@@ -2852,7 +2932,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>20</v>
@@ -2861,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M27" s="28" t="s">
         <v>20</v>
@@ -2878,8 +2958,12 @@
       <c r="N27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="O27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -2912,7 +2996,7 @@
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>20</v>
@@ -2938,8 +3022,12 @@
       <c r="N28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
+      <c r="O28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
@@ -2972,13 +3060,13 @@
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>20</v>
@@ -2998,8 +3086,12 @@
       <c r="N29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
+      <c r="O29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
@@ -3032,13 +3124,13 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>20</v>
@@ -3058,8 +3150,12 @@
       <c r="N30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
+      <c r="O30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -3088,11 +3184,11 @@
       </c>
       <c r="E31" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>20</v>
@@ -3113,13 +3209,17 @@
         <v>20</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
+      <c r="O31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
@@ -3152,13 +3252,13 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>20</v>
@@ -3178,8 +3278,12 @@
       <c r="N32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+      <c r="O32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
@@ -3212,13 +3316,13 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>20</v>
@@ -3238,8 +3342,12 @@
       <c r="N33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
+      <c r="O33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
@@ -3272,7 +3380,7 @@
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>20</v>
@@ -3298,8 +3406,12 @@
       <c r="N34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
+      <c r="O34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
@@ -3332,13 +3444,13 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>20</v>
@@ -3358,8 +3470,12 @@
       <c r="N35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
+      <c r="O35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
@@ -3392,7 +3508,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>20</v>
@@ -3413,13 +3529,17 @@
         <v>20</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
       <c r="S36" s="34"/>
@@ -3452,13 +3572,13 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>20</v>
@@ -3478,8 +3598,12 @@
       <c r="N37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
+      <c r="O37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="34"/>
       <c r="R37" s="34"/>
       <c r="S37" s="34"/>
@@ -3512,7 +3636,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>20</v>
@@ -3524,13 +3648,13 @@
         <v>20</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K38" s="28" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M38" s="28" t="s">
         <v>20</v>
@@ -3538,8 +3662,12 @@
       <c r="N38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
+      <c r="O38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="34"/>
       <c r="R38" s="34"/>
       <c r="S38" s="34"/>
@@ -3572,13 +3700,13 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>20</v>
@@ -3598,8 +3726,12 @@
       <c r="N39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
+      <c r="O39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="34"/>
       <c r="R39" s="34"/>
       <c r="S39" s="34"/>
@@ -3632,13 +3764,13 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>20</v>
@@ -3658,8 +3790,12 @@
       <c r="N40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="O40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="34"/>
       <c r="R40" s="34"/>
       <c r="S40" s="34"/>
@@ -3692,13 +3828,13 @@
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>20</v>
@@ -3718,8 +3854,12 @@
       <c r="N41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
+      <c r="O41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="34"/>
       <c r="R41" s="34"/>
       <c r="S41" s="34"/>
@@ -3752,13 +3892,13 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>20</v>
@@ -3778,8 +3918,12 @@
       <c r="N42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
+      <c r="O42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="34"/>
       <c r="R42" s="34"/>
       <c r="S42" s="34"/>
@@ -3812,7 +3956,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>20</v>
@@ -3838,8 +3982,12 @@
       <c r="N43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
+      <c r="O43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="34"/>
       <c r="R43" s="34"/>
       <c r="S43" s="34"/>
@@ -3872,13 +4020,13 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>20</v>
@@ -3898,8 +4046,12 @@
       <c r="N44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
+      <c r="O44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="34"/>
       <c r="R44" s="34"/>
       <c r="S44" s="34"/>
@@ -3932,13 +4084,13 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>20</v>
@@ -3958,8 +4110,12 @@
       <c r="N45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
+      <c r="O45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="34"/>
       <c r="R45" s="34"/>
       <c r="S45" s="34"/>
@@ -3992,13 +4148,13 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>20</v>
@@ -4018,8 +4174,12 @@
       <c r="N46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
+      <c r="O46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
       <c r="S46" s="34"/>
@@ -4052,10 +4212,10 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>20</v>
@@ -4078,8 +4238,12 @@
       <c r="N47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
+      <c r="O47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="34"/>
       <c r="R47" s="34"/>
       <c r="S47" s="34"/>
@@ -4112,13 +4276,13 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>20</v>
@@ -4138,8 +4302,12 @@
       <c r="N48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
+      <c r="O48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
@@ -4172,13 +4340,13 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>20</v>
@@ -4198,8 +4366,12 @@
       <c r="N49" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
+      <c r="O49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="34"/>
       <c r="R49" s="34"/>
       <c r="S49" s="34"/>
@@ -4232,13 +4404,13 @@
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>20</v>
@@ -4258,8 +4430,12 @@
       <c r="N50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
+      <c r="O50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
       <c r="S50" s="34"/>
@@ -4292,7 +4468,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>20</v>
@@ -4318,8 +4494,12 @@
       <c r="N51" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
+      <c r="O51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="34"/>
       <c r="R51" s="34"/>
       <c r="S51" s="34"/>
@@ -4352,13 +4532,13 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>20</v>
@@ -4378,8 +4558,12 @@
       <c r="N52" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
+      <c r="O52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
       <c r="S52" s="34"/>
@@ -4412,13 +4596,13 @@
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>20</v>
@@ -4438,8 +4622,12 @@
       <c r="N53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
+      <c r="O53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="34"/>
       <c r="R53" s="34"/>
       <c r="S53" s="34"/>
@@ -4472,10 +4660,10 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" s="28" t="s">
         <v>20</v>
@@ -4484,7 +4672,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K54" s="28" t="s">
         <v>20</v>
@@ -4498,8 +4686,12 @@
       <c r="N54" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
+      <c r="O54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
@@ -4528,11 +4720,11 @@
       </c>
       <c r="E55" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>20</v>
@@ -4556,10 +4748,14 @@
         <v>20</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q55" s="34"/>
       <c r="R55" s="34"/>
       <c r="S55" s="34"/>
@@ -4592,13 +4788,13 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>20</v>
@@ -4618,8 +4814,12 @@
       <c r="N56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
+      <c r="O56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
@@ -4652,13 +4852,13 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>20</v>
@@ -4678,8 +4878,12 @@
       <c r="N57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
+      <c r="O57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
       <c r="S57" s="34"/>
@@ -4712,10 +4916,10 @@
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H58" s="28" t="s">
         <v>20</v>
@@ -4738,8 +4942,12 @@
       <c r="N58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
+      <c r="O58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
       <c r="S58" s="34"/>
@@ -4772,13 +4980,13 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>20</v>
@@ -4798,8 +5006,12 @@
       <c r="N59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
+      <c r="O59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
       <c r="S59" s="34"/>
@@ -4832,13 +5044,13 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>20</v>
@@ -4858,8 +5070,12 @@
       <c r="N60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
+      <c r="O60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
       <c r="S60" s="34"/>
@@ -4892,13 +5108,13 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>20</v>
@@ -4918,8 +5134,12 @@
       <c r="N61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
+      <c r="O61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
       <c r="S61" s="34"/>
@@ -4948,11 +5168,11 @@
       </c>
       <c r="E62" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G62" s="27" t="s">
         <v>20</v>
@@ -4976,10 +5196,14 @@
         <v>20</v>
       </c>
       <c r="N62" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
       <c r="S62" s="34"/>
@@ -5012,7 +5236,7 @@
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="27" t="s">
         <v>20</v>
@@ -5038,8 +5262,12 @@
       <c r="N63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
+      <c r="O63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="34"/>
       <c r="R63" s="34"/>
       <c r="S63" s="34"/>
@@ -5072,13 +5300,13 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>20</v>
@@ -5098,8 +5326,12 @@
       <c r="N64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
+      <c r="O64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
       <c r="S64" s="34"/>
@@ -5132,13 +5364,13 @@
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="28" t="s">
         <v>20</v>
@@ -5158,8 +5390,12 @@
       <c r="N65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
+      <c r="O65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="34"/>
       <c r="R65" s="34"/>
       <c r="S65" s="34"/>
@@ -5192,7 +5428,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>20</v>
@@ -5218,8 +5454,12 @@
       <c r="N66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
+      <c r="O66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q66" s="34"/>
       <c r="R66" s="34"/>
       <c r="S66" s="34"/>
@@ -5252,13 +5492,13 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>20</v>
@@ -5278,8 +5518,12 @@
       <c r="N67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
+      <c r="O67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="34"/>
       <c r="R67" s="34"/>
       <c r="S67" s="34"/>
@@ -5312,7 +5556,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="27" t="s">
         <v>20</v>
@@ -5338,8 +5582,12 @@
       <c r="N68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
+      <c r="O68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="34"/>
       <c r="R68" s="34"/>
       <c r="S68" s="34"/>
@@ -5372,7 +5620,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="27" t="s">
         <v>20</v>
@@ -5398,8 +5646,12 @@
       <c r="N69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
+      <c r="O69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="34"/>
       <c r="R69" s="34"/>
       <c r="S69" s="34"/>
@@ -5432,7 +5684,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>20</v>
@@ -5458,8 +5710,12 @@
       <c r="N70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
+      <c r="O70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="34"/>
       <c r="R70" s="34"/>
       <c r="S70" s="34"/>
@@ -5492,13 +5748,13 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>20</v>
@@ -5518,8 +5774,12 @@
       <c r="N71" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
+      <c r="O71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="34"/>
       <c r="R71" s="34"/>
       <c r="S71" s="34"/>
@@ -5552,13 +5812,13 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>20</v>
@@ -5578,8 +5838,12 @@
       <c r="N72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
+      <c r="O72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="34"/>
       <c r="R72" s="34"/>
       <c r="S72" s="34"/>
@@ -5612,7 +5876,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>20</v>
@@ -5624,7 +5888,7 @@
         <v>20</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K73" s="28" t="s">
         <v>20</v>
@@ -5633,13 +5897,17 @@
         <v>20</v>
       </c>
       <c r="M73" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
+      <c r="O73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="34"/>
       <c r="R73" s="34"/>
       <c r="S73" s="34"/>
@@ -5672,10 +5940,10 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H74" s="28" t="s">
         <v>20</v>
@@ -5687,7 +5955,7 @@
         <v>20</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>20</v>
@@ -5698,8 +5966,12 @@
       <c r="N74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
+      <c r="O74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="34"/>
       <c r="R74" s="34"/>
       <c r="S74" s="34"/>
@@ -5732,13 +6004,13 @@
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>20</v>
@@ -5758,8 +6030,12 @@
       <c r="N75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
+      <c r="O75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="34"/>
       <c r="R75" s="34"/>
       <c r="S75" s="34"/>
@@ -5788,11 +6064,11 @@
       </c>
       <c r="E76" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>20</v>
@@ -5818,8 +6094,12 @@
       <c r="N76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
+      <c r="O76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q76" s="34"/>
       <c r="R76" s="34"/>
       <c r="S76" s="34"/>
@@ -5852,13 +6132,13 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>20</v>
@@ -5878,8 +6158,12 @@
       <c r="N77" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
+      <c r="O77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="34"/>
       <c r="R77" s="34"/>
       <c r="S77" s="34"/>
@@ -5912,7 +6196,7 @@
       </c>
       <c r="F78" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>20</v>
@@ -5933,13 +6217,17 @@
         <v>20</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N78" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="34"/>
       <c r="R78" s="34"/>
       <c r="S78" s="34"/>
@@ -5972,13 +6260,13 @@
       </c>
       <c r="F79" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>20</v>
@@ -5998,8 +6286,12 @@
       <c r="N79" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
+      <c r="O79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="34"/>
       <c r="R79" s="34"/>
       <c r="S79" s="34"/>
@@ -6032,13 +6324,13 @@
       </c>
       <c r="F80" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>20</v>
@@ -6058,8 +6350,12 @@
       <c r="N80" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
+      <c r="O80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="34"/>
       <c r="R80" s="34"/>
       <c r="S80" s="34"/>
@@ -6092,13 +6388,13 @@
       </c>
       <c r="F81" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>20</v>
@@ -6118,8 +6414,12 @@
       <c r="N81" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
+      <c r="O81" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q81" s="34"/>
       <c r="R81" s="34"/>
       <c r="S81" s="34"/>
@@ -6148,11 +6448,11 @@
       </c>
       <c r="E82" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>20</v>
@@ -6170,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M82" s="28" t="s">
         <v>20</v>
@@ -6178,8 +6478,12 @@
       <c r="N82" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
+      <c r="O82" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="Q82" s="34"/>
       <c r="R82" s="34"/>
       <c r="S82" s="34"/>
@@ -6212,10 +6516,10 @@
       </c>
       <c r="F83" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H83" s="28" t="s">
         <v>20</v>
@@ -6238,8 +6542,12 @@
       <c r="N83" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
+      <c r="O83" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q83" s="34"/>
       <c r="R83" s="34"/>
       <c r="S83" s="34"/>
@@ -6272,7 +6580,7 @@
       </c>
       <c r="F84" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>20</v>
@@ -6298,8 +6606,12 @@
       <c r="N84" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
+      <c r="O84" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q84" s="34"/>
       <c r="R84" s="34"/>
       <c r="S84" s="34"/>
@@ -6332,7 +6644,7 @@
       </c>
       <c r="F85" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>20</v>
@@ -6344,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K85" s="28" t="s">
         <v>20</v>
@@ -6356,10 +6668,14 @@
         <v>20</v>
       </c>
       <c r="N85" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="O85" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q85" s="34"/>
       <c r="R85" s="34"/>
       <c r="S85" s="34"/>
@@ -6392,10 +6708,10 @@
       </c>
       <c r="F86" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H86" s="28" t="s">
         <v>20</v>
@@ -6410,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M86" s="28" t="s">
         <v>20</v>
@@ -6418,8 +6734,12 @@
       <c r="N86" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
+      <c r="O86" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q86" s="34"/>
       <c r="R86" s="34"/>
       <c r="S86" s="34"/>
